--- a/biology/Zoologie/Daviesa_gallonae/Daviesa_gallonae.xlsx
+++ b/biology/Zoologie/Daviesa_gallonae/Daviesa_gallonae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daviesa gallonae est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daviesa gallonae est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,7 mm de long sur 2,0 mm et l'abdomen 3,2 mm de long sur 1,9 mm et la carapace du mâle paratype mesure 2,4 mm de long sur 1,8 mm et l'abdomen 2,9 mm de long sur 1,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,7 mm de long sur 2,0 mm et l'abdomen 3,2 mm de long sur 1,9 mm et la carapace du mâle paratype mesure 2,4 mm de long sur 1,8 mm et l'abdomen 2,9 mm de long sur 1,4 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Julie Gallon[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Julie Gallon.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1993 : A new spider genus (Araneae : Amaurobioidea) from rainforests of Queensland, Australia. Memoirs of the Queensland Museum, vol. 33, p. 483-489 (texte intégral).</t>
         </is>
